--- a/Программа курса.xlsx
+++ b/Программа курса.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_colvir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3927F3-7002-4104-BA04-344279A04FDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2963B4-D536-4FB9-B43D-E12024A05DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Установка ПО. Примеры применения</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Тестирование. Логирование. Рефакторинг</t>
   </si>
   <si>
-    <t xml:space="preserve">Многопоточность. Многопроцессороное программирование. </t>
-  </si>
-  <si>
     <t>Модуль 11. Анализ данных</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     </r>
   </si>
   <si>
-    <t>Примеры работы.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -414,7 +408,22 @@
     <t>Работа с различными типами данных, различными файлами и с регулярными выражениями</t>
   </si>
   <si>
-    <t>futures, Async Io, coroutines, yield from</t>
+    <t xml:space="preserve">Многопоточность. </t>
+  </si>
+  <si>
+    <t>Многопроцессороное программирование. Futures</t>
+  </si>
+  <si>
+    <t>Deadlock, Daemons, Multiprocessing</t>
+  </si>
+  <si>
+    <t>Примитивы синхронизации, Очереди, Блокировки</t>
+  </si>
+  <si>
+    <t>Asyncio. Aiohttp, requests, beautifulsoup</t>
+  </si>
+  <si>
+    <t>Asyncio examples. Парсинг сайта</t>
   </si>
 </sst>
 </file>
@@ -764,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -787,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -796,13 +805,13 @@
     <row r="2" spans="1:5" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -811,13 +820,13 @@
     <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -826,13 +835,13 @@
     <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -841,13 +850,13 @@
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -859,10 +868,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -874,10 +883,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -889,10 +898,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -901,13 +910,13 @@
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -916,13 +925,13 @@
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -931,13 +940,13 @@
     <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -946,13 +955,13 @@
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -961,83 +970,94 @@
     <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1049,7 +1069,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1058,46 +1078,58 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Программа курса.xlsx
+++ b/Программа курса.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_colvir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2963B4-D536-4FB9-B43D-E12024A05DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C230BD-6D3E-4874-9501-750C353B48F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>Установка ПО. Примеры применения</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Модуль 4. Модули и пакеты</t>
   </si>
   <si>
-    <t>Модуль Numpy. Базовый функционал</t>
-  </si>
-  <si>
-    <t>Модуль Pandas. Базовый функционал</t>
-  </si>
-  <si>
     <t>Работа с базами данных. Базовый функционал</t>
   </si>
   <si>
@@ -57,12 +51,6 @@
     <t>Тестирование. Логирование. Рефакторинг</t>
   </si>
   <si>
-    <t>Модуль 11. Анализ данных</t>
-  </si>
-  <si>
-    <t>Визуализация данных. Базовый функционал</t>
-  </si>
-  <si>
     <t>Базовые конструкции. Переменные. Циклы. Ветвление. Инструменты отладки. Работа со строками. Базовые операции со строками. Индексация. Методы. Форматирование</t>
   </si>
   <si>
@@ -423,7 +411,35 @@
     <t>Asyncio. Aiohttp, requests, beautifulsoup</t>
   </si>
   <si>
-    <t>Asyncio examples. Парсинг сайта</t>
+    <r>
+      <t xml:space="preserve">Asyncio examples. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Парсинг сайта</t>
+    </r>
+  </si>
+  <si>
+    <t>Модуль 9. Анализ данных</t>
+  </si>
+  <si>
+    <t>Модуль Numpy. Базовый функционал. Визуализация данных. Базовый функционал.</t>
+  </si>
+  <si>
+    <t>Модуль Pandas. Базовый функционал. Визуализация данных.</t>
+  </si>
+  <si>
+    <t>Базовый синтаксис при работе с numpy, matplotlib</t>
+  </si>
+  <si>
+    <t>Базовый синтаксис при работе с pandas, matplotlib</t>
   </si>
 </sst>
 </file>
@@ -773,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -796,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -805,13 +821,13 @@
     <row r="2" spans="1:5" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -820,13 +836,13 @@
     <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -835,13 +851,13 @@
     <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -850,13 +866,13 @@
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -868,10 +884,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -883,10 +899,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -898,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -910,13 +926,13 @@
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -925,13 +941,13 @@
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -940,13 +956,13 @@
     <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -955,13 +971,13 @@
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -970,13 +986,13 @@
     <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -985,13 +1001,13 @@
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1000,136 +1016,139 @@
     <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Программа курса.xlsx
+++ b/Программа курса.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_colvir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C230BD-6D3E-4874-9501-750C353B48F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F3D58F-5301-48DA-B267-96E07D82B244}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Установка ПО. Примеры применения</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Модуль 14. Поддержка цикла разработки</t>
   </si>
   <si>
-    <t>Тестирование. Логирование. Рефакторинг</t>
-  </si>
-  <si>
     <t>Базовые конструкции. Переменные. Циклы. Ветвление. Инструменты отладки. Работа со строками. Базовые операции со строками. Индексация. Методы. Форматирование</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     </r>
   </si>
   <si>
-    <t>Сетевые операции. Модуль requests. Парсинг сайтов. Модуль beautifulsoup. Работа с изображениями</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Примеры документирования. </t>
     </r>
@@ -346,32 +340,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Скачивание текста и фотографий с сайта</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. . Добавление данных в таблицу с использованием pandas. Сохранение excel файлов. Парсинг Авито.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Замыкания. Генераторы. Декораторы.  Nonlocal. Ленивые вычисления. </t>
-  </si>
-  <si>
     <t>Итераторы. Исключения.Itertools. Coroutines. Collections</t>
   </si>
   <si>
@@ -440,6 +408,27 @@
   </si>
   <si>
     <t>Базовый синтаксис при работе с pandas, matplotlib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Замыкания. Генераторы. Декораторы.  Nonlocal. Ленивые вычисления. </t>
+  </si>
+  <si>
+    <t>Модуль 10. Тестирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Рефакторинг</t>
+  </si>
+  <si>
+    <t>Написание логов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Логирование, logging. ООП декораторы @property, @staticmethod, @classmethod</t>
+  </si>
+  <si>
+    <t>Тестирование, unittest. Mock</t>
+  </si>
+  <si>
+    <t>Написание тестов. Работа с API переводчика</t>
   </si>
 </sst>
 </file>
@@ -489,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -497,6 +486,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -821,13 +813,13 @@
     <row r="2" spans="1:5" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -836,13 +828,13 @@
     <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -851,13 +843,13 @@
     <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -866,13 +858,13 @@
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -884,10 +876,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -899,10 +891,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -914,10 +906,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -926,13 +918,13 @@
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -941,13 +933,13 @@
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -956,13 +948,13 @@
     <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -971,13 +963,13 @@
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -986,13 +978,13 @@
     <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1001,13 +993,13 @@
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1016,13 +1008,13 @@
     <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1031,13 +1023,13 @@
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1046,49 +1038,55 @@
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1097,10 +1095,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1109,46 +1107,58 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Программа курса.xlsx
+++ b/Программа курса.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_colvir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F3D58F-5301-48DA-B267-96E07D82B244}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0187F056-DF86-4F1D-BABA-461DD00D5615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Установка ПО. Примеры применения</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Модуль 4. Модули и пакеты</t>
   </si>
   <si>
-    <t>Работа с базами данных. Базовый функционал</t>
-  </si>
-  <si>
     <t>Модуль 13. ООП</t>
   </si>
   <si>
@@ -428,14 +425,26 @@
     <t>Тестирование, unittest. Mock</t>
   </si>
   <si>
-    <t>Написание тестов. Работа с API переводчика</t>
+    <t>Работа с API переводчика, Postman</t>
+  </si>
+  <si>
+    <t>Работа с базами данных. Базовый функционал, работа с api внешних программ</t>
+  </si>
+  <si>
+    <t>Написание тестов.</t>
+  </si>
+  <si>
+    <t>Отправление email, работа с youtube api, openweather api</t>
+  </si>
+  <si>
+    <t>Работа с WEB API, smtp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +464,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -478,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -488,6 +506,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -781,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -813,13 +834,13 @@
     <row r="2" spans="1:5" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -828,13 +849,13 @@
     <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -843,13 +864,13 @@
     <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -858,13 +879,13 @@
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -876,10 +897,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -891,10 +912,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -906,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,13 +939,13 @@
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -933,13 +954,13 @@
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -948,13 +969,13 @@
     <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -963,13 +984,13 @@
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -978,13 +999,13 @@
     <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -993,13 +1014,13 @@
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1008,13 +1029,13 @@
     <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1023,13 +1044,13 @@
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1038,13 +1059,13 @@
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1053,13 +1074,13 @@
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1068,13 +1089,13 @@
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1083,82 +1104,97 @@
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Программа курса.xlsx
+++ b/Программа курса.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_colvir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0187F056-DF86-4F1D-BABA-461DD00D5615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A8422-0D6E-4C30-AFE3-32E4D4F08749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>Установка ПО. Примеры применения</t>
   </si>
@@ -425,19 +425,25 @@
     <t>Тестирование, unittest. Mock</t>
   </si>
   <si>
-    <t>Работа с API переводчика, Postman</t>
-  </si>
-  <si>
-    <t>Работа с базами данных. Базовый функционал, работа с api внешних программ</t>
-  </si>
-  <si>
     <t>Написание тестов.</t>
   </si>
   <si>
-    <t>Отправление email, работа с youtube api, openweather api</t>
-  </si>
-  <si>
     <t>Работа с WEB API, smtp</t>
+  </si>
+  <si>
+    <t>Отправление email, работа с youtube api, openweather api, Postman</t>
+  </si>
+  <si>
+    <t>Модуль 11. Flask</t>
+  </si>
+  <si>
+    <t>Введение во flask, routing, forms</t>
+  </si>
+  <si>
+    <t>Создание приложения</t>
+  </si>
+  <si>
+    <t>Работа с ORM SQLALCHEMY</t>
   </si>
 </sst>
 </file>
@@ -802,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,7 +1101,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1107,34 +1113,40 @@
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1143,10 +1155,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1155,46 +1167,58 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Программа курса.xlsx
+++ b/Программа курса.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_colvir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A8422-0D6E-4C30-AFE3-32E4D4F08749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E3978B-4D68-4CA9-A637-557FA81998A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,6 +1148,9 @@
       <c r="D22" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>

--- a/Программа курса.xlsx
+++ b/Программа курса.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_colvir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E3978B-4D68-4CA9-A637-557FA81998A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B691246-45B1-406D-A00B-953C1BE265FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Установка ПО. Примеры применения</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Модуль 13. ООП</t>
   </si>
   <si>
-    <t>Модуль 14. Поддержка цикла разработки</t>
-  </si>
-  <si>
     <t>Базовые конструкции. Переменные. Циклы. Ветвление. Инструменты отладки. Работа со строками. Базовые операции со строками. Индексация. Методы. Форматирование</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t xml:space="preserve"> Магические методы классов. Время жизни объекта(__new__, __init__,__getattr__, __setattr__, __getattribute__,  __del__, __delattr__). . Функторы(__call__).  </t>
   </si>
   <si>
-    <t>Перегрузка арифметических магических методов. Преобразование типов. Копирование. Контекстный менеджер.</t>
-  </si>
-  <si>
     <t>Создание функций. Области видимости. Глобальные и локальные переменные. Возвращение значений. Обязательные и необязательные параметры. global. Передача аргументов по имени, позиции.  Is, ==. *Модуль faker</t>
   </si>
   <si>
@@ -312,12 +306,6 @@
     <t>Атрибуты классов и объектов. @staticmethod, @classmethod. Абстрактные методы. Иерархии классов. __slots__. Модули pymler, timeit. Множественное наследование</t>
   </si>
   <si>
-    <t>Классы, объекты.  Методы, атрибуты. Проектирование классов. self. Доступ к атрибутам(getattr, setattr,hasattr). Создание копий объекта. Наследование. super. Множественное наследование</t>
-  </si>
-  <si>
-    <t>Создание класса Complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">Функции обратного вызова. Функции высших порядков. Встроенные функции высших порядков. Генерация функций. Списки функций. Списковые включения. Лямбда функции. Модуль functools, operator. Partial functions. </t>
   </si>
   <si>
@@ -337,9 +325,6 @@
     </r>
   </si>
   <si>
-    <t>Итераторы. Исключения.Itertools. Coroutines. Collections</t>
-  </si>
-  <si>
     <t>Модуль 8. Параллельные вычисления</t>
   </si>
   <si>
@@ -352,9 +337,6 @@
     <t xml:space="preserve">Создание класса Car. Создание иерархии классов на основе класса Figure. </t>
   </si>
   <si>
-    <t>*Работа с голосом.Распознование и генерация речи.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Collections. Slice. Decimal, json, xml, yaml, date, time, datetime, re </t>
   </si>
   <si>
@@ -413,9 +395,6 @@
     <t>Модуль 10. Тестирование</t>
   </si>
   <si>
-    <t xml:space="preserve"> Рефакторинг</t>
-  </si>
-  <si>
     <t>Написание логов</t>
   </si>
   <si>
@@ -444,6 +423,24 @@
   </si>
   <si>
     <t>Работа с ORM SQLALCHEMY</t>
+  </si>
+  <si>
+    <t>Модуль 13. Flask</t>
+  </si>
+  <si>
+    <t>Атворизация, Swagger</t>
+  </si>
+  <si>
+    <t>Tkinter app</t>
+  </si>
+  <si>
+    <t>Tkinter, Перегрузка арифметических магических методов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итераторы. Исключения.Itertools. </t>
+  </si>
+  <si>
+    <t>Преобразование типов. Копирование. Контекстный менеджер.</t>
   </si>
 </sst>
 </file>
@@ -808,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C29" sqref="C29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -831,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -840,13 +837,13 @@
     <row r="2" spans="1:5" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -855,13 +852,13 @@
     <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -870,13 +867,13 @@
     <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -885,13 +882,13 @@
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -903,10 +900,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -918,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -933,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -945,13 +942,13 @@
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -960,13 +957,13 @@
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -975,13 +972,13 @@
     <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -990,13 +987,13 @@
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1005,13 +1002,13 @@
     <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1020,13 +1017,13 @@
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1035,13 +1032,13 @@
     <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1050,13 +1047,13 @@
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1065,13 +1062,13 @@
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1080,13 +1077,13 @@
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1095,13 +1092,13 @@
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1110,13 +1107,13 @@
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1125,13 +1122,13 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1140,40 +1137,46 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1182,17 +1185,19 @@
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1202,26 +1207,29 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Программа курса.xlsx
+++ b/Программа курса.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_colvir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B691246-45B1-406D-A00B-953C1BE265FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3A091-CCB0-4212-9289-52A824A25427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Установка ПО. Примеры применения</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Модуль 4. Модули и пакеты</t>
   </si>
   <si>
-    <t>Модуль 13. ООП</t>
-  </si>
-  <si>
     <t>Базовые конструкции. Переменные. Циклы. Ветвление. Инструменты отладки. Работа со строками. Базовые операции со строками. Индексация. Методы. Форматирование</t>
   </si>
   <si>
@@ -198,12 +195,6 @@
     <t>Модули os и os.path. Обход директорий. Работа с файлами и папками. Передача аргументов командной строки. Позиционирование в файле. Модуль io, pyinstaller, shutil.  *Блокировщик сайтов</t>
   </si>
   <si>
-    <t xml:space="preserve">Примеры измерения скорости выполнения программы и размера памяти при использовании __slots__.  Оценка времени выполнения скрипта. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Магические методы классов. Время жизни объекта(__new__, __init__,__getattr__, __setattr__, __getattribute__,  __del__, __delattr__). . Функторы(__call__).  </t>
-  </si>
-  <si>
     <t>Создание функций. Области видимости. Глобальные и локальные переменные. Возвращение значений. Обязательные и необязательные параметры. global. Передача аргументов по имени, позиции.  Is, ==. *Модуль faker</t>
   </si>
   <si>
@@ -303,9 +294,6 @@
     <t>Модуль 6. ООП</t>
   </si>
   <si>
-    <t>Атрибуты классов и объектов. @staticmethod, @classmethod. Абстрактные методы. Иерархии классов. __slots__. Модули pymler, timeit. Множественное наследование</t>
-  </si>
-  <si>
     <t xml:space="preserve">Функции обратного вызова. Функции высших порядков. Встроенные функции высших порядков. Генерация функций. Списки функций. Списковые включения. Лямбда функции. Модуль functools, operator. Partial functions. </t>
   </si>
   <si>
@@ -425,9 +413,6 @@
     <t>Работа с ORM SQLALCHEMY</t>
   </si>
   <si>
-    <t>Модуль 13. Flask</t>
-  </si>
-  <si>
     <t>Атворизация, Swagger</t>
   </si>
   <si>
@@ -437,10 +422,22 @@
     <t>Tkinter, Перегрузка арифметических магических методов.</t>
   </si>
   <si>
-    <t xml:space="preserve">Итераторы. Исключения.Itertools. </t>
-  </si>
-  <si>
-    <t>Преобразование типов. Копирование. Контекстный менеджер.</t>
+    <t>Абстрактные методы. Миксины. SOLID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Множественное наследование, Meta classes</t>
+  </si>
+  <si>
+    <t>Примеры использования</t>
+  </si>
+  <si>
+    <t>Модуль 12. NoSQL</t>
+  </si>
+  <si>
+    <t>Введение в MongoDB</t>
+  </si>
+  <si>
+    <t>Создание простого приложение и использованием mongoengine</t>
   </si>
 </sst>
 </file>
@@ -807,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C30"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -837,13 +834,13 @@
     <row r="2" spans="1:5" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -852,13 +849,13 @@
     <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -867,13 +864,13 @@
     <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -882,13 +879,13 @@
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -900,10 +897,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -915,10 +912,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -930,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -942,13 +939,13 @@
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -957,13 +954,13 @@
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -972,13 +969,13 @@
     <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -987,13 +984,13 @@
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1002,13 +999,13 @@
     <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1017,13 +1014,13 @@
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1032,13 +1029,13 @@
     <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1047,13 +1044,13 @@
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1062,13 +1059,13 @@
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1077,13 +1074,13 @@
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1092,13 +1089,13 @@
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1107,13 +1104,13 @@
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1122,13 +1119,13 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1137,13 +1134,13 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1152,13 +1149,13 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1167,58 +1164,64 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">

--- a/Программа курса.xlsx
+++ b/Программа курса.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_colvir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3A091-CCB0-4212-9289-52A824A25427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC285CD-BB66-40D5-B5D8-CBB9932B9853}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,15 +39,9 @@
     <t>Модуль 4. Модули и пакеты</t>
   </si>
   <si>
-    <t>Базовые конструкции. Переменные. Циклы. Ветвление. Инструменты отладки. Работа со строками. Базовые операции со строками. Индексация. Методы. Форматирование</t>
-  </si>
-  <si>
     <t>Модуль 1. Основные операторы и базовые структуры данных</t>
   </si>
   <si>
-    <t>Списки. Диапозоны. Словари. Множества. Кортежи. Методы последовательностей. Распаковка. Модули json, difflib</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Установка Anaconda, visual studio code. </t>
     </r>
@@ -413,9 +407,6 @@
     <t>Работа с ORM SQLALCHEMY</t>
   </si>
   <si>
-    <t>Атворизация, Swagger</t>
-  </si>
-  <si>
     <t>Tkinter app</t>
   </si>
   <si>
@@ -438,6 +429,15 @@
   </si>
   <si>
     <t>Создание простого приложение и использованием mongoengine</t>
+  </si>
+  <si>
+    <t>. Словари. Множества. Методы последовательностей. Распаковка. Модули json, difflib</t>
+  </si>
+  <si>
+    <t>Базовые конструкции. Переменные. Циклы. Ветвление. Инструменты отладки. Работа со строками. Базовые операции со строками. Индексация. Методы. Форматирование. Списки. Диапозоны. Кортежи</t>
+  </si>
+  <si>
+    <t>Авторизация, Swagger</t>
   </si>
 </sst>
 </file>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -834,13 +834,13 @@
     <row r="2" spans="1:5" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -849,13 +849,13 @@
     <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -864,13 +864,13 @@
     <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -879,13 +879,13 @@
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -912,10 +912,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -927,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -939,13 +939,13 @@
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -954,13 +954,13 @@
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -969,13 +969,13 @@
     <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -984,13 +984,13 @@
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -999,13 +999,13 @@
     <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1014,13 +1014,13 @@
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1029,13 +1029,13 @@
     <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1044,13 +1044,13 @@
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1059,13 +1059,13 @@
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1074,13 +1074,13 @@
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1089,13 +1089,13 @@
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1104,13 +1104,13 @@
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1119,13 +1119,13 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1134,13 +1134,13 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1149,13 +1149,13 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1164,13 +1164,13 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1179,13 +1179,13 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1194,13 +1194,13 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1209,13 +1209,16 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">

--- a/Программа курса.xlsx
+++ b/Программа курса.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC285CD-BB66-40D5-B5D8-CBB9932B9853}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D2994E-FCA0-408A-BA70-71F168BC4F63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Установка ПО. Примеры применения</t>
   </si>
@@ -130,9 +130,9 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Примеры работы с функциями и задачи на понимание областей видимости. </t>
-    </r>
+    <t xml:space="preserve">Работа со строками, байтами, кодировками. Модули io, chardet, zipfile, random. Открытие и закрытие файлов. Оператор with. Форматирование строк. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -142,11 +142,188 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Генерирование рандомных параметров для автозаполнения</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Работа со строками, байтами, кодировками. Модули io, chardet, zipfile, random. Открытие и закрытие файлов. Оператор with. Форматирование строк. </t>
+      <t>Отладка в VSC,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Задачи, содержащие цикл, условные конструкции, цикл в цикле, операторы, работающие внутри цикла. Базовые методы строк. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Импортирование модулей и пакетов. Способы создания. Конфигурация VSC. Документирование. Настройка виртуального окружения. Импортирование пакетов. </t>
+  </si>
+  <si>
+    <t>Модуль 5. Инструменты функционального программирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подсчет running average. Создание декаратора для определения времени выполнения функции.  </t>
+  </si>
+  <si>
+    <t>Модуль 6. ООП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Функции обратного вызова. Функции высших порядков. Встроенные функции высших порядков. Генерация функций. Списки функций. Списковые включения. Лямбда функции. Модуль functools, operator. Partial functions. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Использование инструментов функционального программирования. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Monkey patching. </t>
+    </r>
+  </si>
+  <si>
+    <t>Модуль 8. Параллельные вычисления</t>
+  </si>
+  <si>
+    <t>Модуль 7. Библотеки для работы с ресурсами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Классы, объекты.  Методы, атрибуты. Проектирование классов. self. Доступ к атрибутам(getattr, setattr,hasattr). Создание копий объекта. Наследование . super. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание класса Car. Создание иерархии классов на основе класса Figure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collections. Slice. Decimal, json, xml, yaml, date, time, datetime, re </t>
+  </si>
+  <si>
+    <t>Работа с различными типами данных, различными файлами и с регулярными выражениями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Многопоточность. </t>
+  </si>
+  <si>
+    <t>Многопроцессороное программирование. Futures</t>
+  </si>
+  <si>
+    <t>Deadlock, Daemons, Multiprocessing</t>
+  </si>
+  <si>
+    <t>Примитивы синхронизации, Очереди, Блокировки</t>
+  </si>
+  <si>
+    <t>Asyncio. Aiohttp, requests, beautifulsoup</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Asyncio examples. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Парсинг сайта</t>
+    </r>
+  </si>
+  <si>
+    <t>Модуль 9. Анализ данных</t>
+  </si>
+  <si>
+    <t>Модуль Numpy. Базовый функционал. Визуализация данных. Базовый функционал.</t>
+  </si>
+  <si>
+    <t>Модуль Pandas. Базовый функционал. Визуализация данных.</t>
+  </si>
+  <si>
+    <t>Базовый синтаксис при работе с numpy, matplotlib</t>
+  </si>
+  <si>
+    <t>Базовый синтаксис при работе с pandas, matplotlib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Замыкания. Генераторы. Декораторы.  Nonlocal. Ленивые вычисления. </t>
+  </si>
+  <si>
+    <t>Модуль 10. Тестирование</t>
+  </si>
+  <si>
+    <t>Написание логов</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Логирование, logging. ООП декораторы @property, @staticmethod, @classmethod</t>
+  </si>
+  <si>
+    <t>Тестирование, unittest. Mock</t>
+  </si>
+  <si>
+    <t>Написание тестов.</t>
+  </si>
+  <si>
+    <t>Работа с WEB API, smtp</t>
+  </si>
+  <si>
+    <t>Отправление email, работа с youtube api, openweather api, Postman</t>
+  </si>
+  <si>
+    <t>Модуль 11. Flask</t>
+  </si>
+  <si>
+    <t>Введение во flask, routing, forms</t>
+  </si>
+  <si>
+    <t>Создание приложения</t>
+  </si>
+  <si>
+    <t>Работа с ORM SQLALCHEMY</t>
+  </si>
+  <si>
+    <t>Tkinter app</t>
+  </si>
+  <si>
+    <t>Tkinter, Перегрузка арифметических магических методов.</t>
+  </si>
+  <si>
+    <t>Абстрактные методы. Миксины. SOLID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Множественное наследование, Meta classes</t>
+  </si>
+  <si>
+    <t>Примеры использования</t>
+  </si>
+  <si>
+    <t>Модуль 12. NoSQL</t>
+  </si>
+  <si>
+    <t>Введение в MongoDB</t>
+  </si>
+  <si>
+    <t>Создание простого приложение и использованием mongoengine</t>
+  </si>
+  <si>
+    <t>. Словари. Множества. Методы последовательностей. Распаковка. Модули json, difflib</t>
+  </si>
+  <si>
+    <t>Базовые конструкции. Переменные. Циклы. Ветвление. Инструменты отладки. Работа со строками. Базовые операции со строками. Индексация. Методы. Форматирование. Списки. Диапозоны. Кортежи</t>
+  </si>
+  <si>
+    <t>Авторизация, Swagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модуль 2. Работа с файлами, директориями и форматирование. </t>
+  </si>
+  <si>
+    <t>Модули os и os.path. Обход директорий. Работа с файлами и папками. Передача аргументов командной строки. Позиционирование в файле. Модуль io, pyinstaller, shutil.  *Блокировщик сайтов. Создание функций. Области видимости. Глобальные и локальные переменные. Возвращение значений. Обязательные и необязательные параметры. global. Передача аргументов по имени, позиции.  Is, ==.</t>
   </si>
   <si>
     <r>
@@ -173,6 +350,14 @@
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
+  </si>
+  <si>
+    <t>Рекурсия. Хранение базовых структур в памяти. Изменяемые и неизменяемые типы. Глубокие и поверхностные копии. Модуль copy.  Виды стандартных исключений. Обработка исключений. Инструкции try, except, else, finally. Модуль warning. Assert. Eval. Модуль functools.  *Модуль faker</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Примеры работы с функциями и задачи на понимание областей видимости. Генерирование рандомных параметров для автозаполнения. Визуализация хранения переменных в памяти. </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -182,16 +367,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Блокировщик сайтов</t>
-    </r>
-  </si>
-  <si>
-    <t>Модули os и os.path. Обход директорий. Работа с файлами и папками. Передача аргументов командной строки. Позиционирование в файле. Модуль io, pyinstaller, shutil.  *Блокировщик сайтов</t>
-  </si>
-  <si>
-    <t>Создание функций. Области видимости. Глобальные и локальные переменные. Возвращение значений. Обязательные и необязательные параметры. global. Передача аргументов по имени, позиции.  Is, ==. *Модуль faker</t>
-  </si>
-  <si>
+      <t>Stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -201,25 +388,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Отладка в VSC,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Задачи, содержащие цикл, условные конструкции, цикл в цикле, операторы, работающие внутри цикла. Базовые методы строк. </t>
-    </r>
-  </si>
-  <si>
-    <t>Рекурсия. Хранение базовых структур в памяти. Изменяемые и неизменяемые типы. Глубокие и поверхностные копии. Модуль copy.  Виды стандартных исключений. Обработка исключений. Инструкции try, except, else, finally. Модуль warning. Assert. Eval. Модуль functools</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Визуализация хранения переменных в памяти. </t>
+      <t xml:space="preserve">Assert. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Работа с исключениями. </t>
     </r>
     <r>
       <rPr>
@@ -230,214 +409,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Stack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Assert. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Работа с исключениями. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Мемоизация</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Импортирование модулей и пакетов. Способы создания. Конфигурация VSC. Документирование. Настройка виртуального окружения. Импортирование пакетов. </t>
-  </si>
-  <si>
-    <t>Модуль 5. Инструменты функционального программирования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подсчет running average. Создание декаратора для определения времени выполнения функции.  </t>
-  </si>
-  <si>
-    <t>Модуль 6. ООП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Функции обратного вызова. Функции высших порядков. Встроенные функции высших порядков. Генерация функций. Списки функций. Списковые включения. Лямбда функции. Модуль functools, operator. Partial functions. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Использование инструментов функционального программирования. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Monkey patching. </t>
-    </r>
-  </si>
-  <si>
-    <t>Модуль 8. Параллельные вычисления</t>
-  </si>
-  <si>
-    <t>Модуль 7. Библотеки для работы с ресурсами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Классы, объекты.  Методы, атрибуты. Проектирование классов. self. Доступ к атрибутам(getattr, setattr,hasattr). Создание копий объекта. Наследование . super. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создание класса Car. Создание иерархии классов на основе класса Figure. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collections. Slice. Decimal, json, xml, yaml, date, time, datetime, re </t>
-  </si>
-  <si>
-    <t>Работа с различными типами данных, различными файлами и с регулярными выражениями</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Многопоточность. </t>
-  </si>
-  <si>
-    <t>Многопроцессороное программирование. Futures</t>
-  </si>
-  <si>
-    <t>Deadlock, Daemons, Multiprocessing</t>
-  </si>
-  <si>
-    <t>Примитивы синхронизации, Очереди, Блокировки</t>
-  </si>
-  <si>
-    <t>Asyncio. Aiohttp, requests, beautifulsoup</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Asyncio examples. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Парсинг сайта</t>
-    </r>
-  </si>
-  <si>
-    <t>Модуль 9. Анализ данных</t>
-  </si>
-  <si>
-    <t>Модуль Numpy. Базовый функционал. Визуализация данных. Базовый функционал.</t>
-  </si>
-  <si>
-    <t>Модуль Pandas. Базовый функционал. Визуализация данных.</t>
-  </si>
-  <si>
-    <t>Базовый синтаксис при работе с numpy, matplotlib</t>
-  </si>
-  <si>
-    <t>Базовый синтаксис при работе с pandas, matplotlib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Замыкания. Генераторы. Декораторы.  Nonlocal. Ленивые вычисления. </t>
-  </si>
-  <si>
-    <t>Модуль 10. Тестирование</t>
-  </si>
-  <si>
-    <t>Написание логов</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Логирование, logging. ООП декораторы @property, @staticmethod, @classmethod</t>
-  </si>
-  <si>
-    <t>Тестирование, unittest. Mock</t>
-  </si>
-  <si>
-    <t>Написание тестов.</t>
-  </si>
-  <si>
-    <t>Работа с WEB API, smtp</t>
-  </si>
-  <si>
-    <t>Отправление email, работа с youtube api, openweather api, Postman</t>
-  </si>
-  <si>
-    <t>Модуль 11. Flask</t>
-  </si>
-  <si>
-    <t>Введение во flask, routing, forms</t>
-  </si>
-  <si>
-    <t>Создание приложения</t>
-  </si>
-  <si>
-    <t>Работа с ORM SQLALCHEMY</t>
-  </si>
-  <si>
-    <t>Tkinter app</t>
-  </si>
-  <si>
-    <t>Tkinter, Перегрузка арифметических магических методов.</t>
-  </si>
-  <si>
-    <t>Абстрактные методы. Миксины. SOLID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Множественное наследование, Meta classes</t>
-  </si>
-  <si>
-    <t>Примеры использования</t>
-  </si>
-  <si>
-    <t>Модуль 12. NoSQL</t>
-  </si>
-  <si>
-    <t>Введение в MongoDB</t>
-  </si>
-  <si>
-    <t>Создание простого приложение и использованием mongoengine</t>
-  </si>
-  <si>
-    <t>. Словари. Множества. Методы последовательностей. Распаковка. Модули json, difflib</t>
-  </si>
-  <si>
-    <t>Базовые конструкции. Переменные. Циклы. Ветвление. Инструменты отладки. Работа со строками. Базовые операции со строками. Индексация. Методы. Форматирование. Списки. Диапозоны. Кортежи</t>
-  </si>
-  <si>
-    <t>Авторизация, Swagger</t>
   </si>
 </sst>
 </file>
@@ -802,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -837,10 +810,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -852,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -867,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -876,76 +849,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -954,43 +927,43 @@
     <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -999,13 +972,13 @@
     <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1014,28 +987,28 @@
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1044,13 +1017,13 @@
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1064,8 +1037,8 @@
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1074,13 +1047,13 @@
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1089,28 +1062,28 @@
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1119,13 +1092,13 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1134,13 +1107,13 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1149,13 +1122,13 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1164,13 +1137,13 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1179,13 +1152,13 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1194,13 +1167,13 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1208,34 +1181,19 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Программа курса.xlsx
+++ b/Программа курса.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D2994E-FCA0-408A-BA70-71F168BC4F63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9185E454-C9D6-4340-998C-45F774E7BA58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
